--- a/Results/Results_S8.xlsx
+++ b/Results/Results_S8.xlsx
@@ -404,7 +404,7 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>21.13602999991814</v>
+        <v>21.1360299999124</v>
       </c>
       <c r="C2">
         <v>381</v>
@@ -413,16 +413,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-7.719945181775206E-07</v>
+        <v>-7.720532990428995E-07</v>
       </c>
       <c r="F2">
-        <v>0.2405063231291879</v>
+        <v>0.2417821421664148</v>
       </c>
       <c r="G2">
-        <v>3688.119289833561</v>
+        <v>3693.176271636694</v>
       </c>
       <c r="H2">
-        <v>0.5730842290860926</v>
+        <v>0.5722995179579016</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>21.87472654997399</v>
+        <v>21.87472654997158</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3.86E-07</v>
+        <v>3.86029E-07</v>
       </c>
       <c r="F3">
-        <v>0.2808579021544875</v>
+        <v>0.2821717707289705</v>
       </c>
       <c r="G3">
-        <v>3776.164726432796</v>
+        <v>3784.657714280826</v>
       </c>
       <c r="H3">
-        <v>0.5792842244633283</v>
+        <v>0.577984277611966</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         <v>2025</v>
       </c>
       <c r="B4">
-        <v>22.61282812997763</v>
+        <v>22.61282812997593</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>3.859945181775207E-07</v>
+        <v>3.860242990428994E-07</v>
       </c>
       <c r="F4">
-        <v>0.3007300246701478</v>
+        <v>0.3023839000805217</v>
       </c>
       <c r="G4">
-        <v>3923.949136356922</v>
+        <v>3935.765975215543</v>
       </c>
       <c r="H4">
-        <v>0.5762772998370681</v>
+        <v>0.5745470709481789</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>2026</v>
       </c>
       <c r="B5">
-        <v>23.31729931994389</v>
+        <v>23.31729931995427</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3142989309240363</v>
+        <v>0.3154641296999544</v>
       </c>
       <c r="G5">
-        <v>4081.822951407262</v>
+        <v>4080.704025106822</v>
       </c>
       <c r="H5">
-        <v>0.5712472000262762</v>
+        <v>0.5714038356247579</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         <v>2027</v>
       </c>
       <c r="B6">
-        <v>24.10071432996599</v>
+        <v>24.10071432995696</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3192129863258302</v>
+        <v>0.3200592976877065</v>
       </c>
       <c r="G6">
-        <v>4295.895152876503</v>
+        <v>4299.186081075621</v>
       </c>
       <c r="H6">
-        <v>0.5610172844611514</v>
+        <v>0.5605878386154237</v>
       </c>
     </row>
     <row r="7">
@@ -534,25 +534,25 @@
         <v>2028</v>
       </c>
       <c r="B7">
-        <v>24.98359055990604</v>
+        <v>24.98359055991395</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>27.22954470759258</v>
+        <v>27.21668751492523</v>
       </c>
       <c r="F7">
-        <v>0.3662698052142371</v>
+        <v>0.3667547375483475</v>
       </c>
       <c r="G7">
-        <v>4478.020220500336</v>
+        <v>4487.59752519654</v>
       </c>
       <c r="H7">
-        <v>0.5579159836199798</v>
+        <v>0.5567252949855338</v>
       </c>
     </row>
     <row r="8">
@@ -560,25 +560,25 @@
         <v>2029</v>
       </c>
       <c r="B8">
-        <v>25.97364393996536</v>
+        <v>25.97364393996251</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>32.22533137396639</v>
+        <v>31.96831289309676</v>
       </c>
       <c r="F8">
-        <v>0.3675431912226697</v>
+        <v>0.3670829004161846</v>
       </c>
       <c r="G8">
-        <v>4629.792357656187</v>
+        <v>4629.628121691282</v>
       </c>
       <c r="H8">
-        <v>0.5610109899856158</v>
+        <v>0.5610308918391894</v>
       </c>
     </row>
     <row r="9">
@@ -586,25 +586,25 @@
         <v>2030</v>
       </c>
       <c r="B9">
-        <v>27.19861199996656</v>
+        <v>27.19861199996599</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>53.67842803983113</v>
+        <v>43.58714678157924</v>
       </c>
       <c r="F9">
-        <v>0.3860078100229088</v>
+        <v>0.386164443454968</v>
       </c>
       <c r="G9">
-        <v>4727.672508348801</v>
+        <v>4729.689828867503</v>
       </c>
       <c r="H9">
-        <v>0.575306600699083</v>
+        <v>0.5750612193205604</v>
       </c>
     </row>
     <row r="10">
@@ -615,22 +615,22 @@
         <v>27.80551598996928</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>207.8234439785335</v>
+        <v>170.0640501765404</v>
       </c>
       <c r="F10">
-        <v>0.3884911139291287</v>
+        <v>0.3891590539204214</v>
       </c>
       <c r="G10">
-        <v>4879.059696512537</v>
+        <v>4869.217031722656</v>
       </c>
       <c r="H10">
-        <v>0.5698949740222314</v>
+        <v>0.5710469631732992</v>
       </c>
     </row>
     <row r="11">
@@ -638,25 +638,25 @@
         <v>2032</v>
       </c>
       <c r="B11">
-        <v>28.17733188996771</v>
+        <v>28.17733188996433</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>191.2756021066982</v>
+        <v>186.6001118196207</v>
       </c>
       <c r="F11">
-        <v>0.3805100646592567</v>
+        <v>0.3810818663094769</v>
       </c>
       <c r="G11">
-        <v>5037.221315827182</v>
+        <v>5017.485049955806</v>
       </c>
       <c r="H11">
-        <v>0.5593824476489296</v>
+        <v>0.5615827772164964</v>
       </c>
     </row>
     <row r="12">
@@ -664,25 +664,25 @@
         <v>2033</v>
       </c>
       <c r="B12">
-        <v>28.57310893996813</v>
+        <v>28.57310893998299</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>334.0200011235319</v>
+        <v>323.2522956176013</v>
       </c>
       <c r="F12">
-        <v>0.3346131993282899</v>
+        <v>0.3371212568904194</v>
       </c>
       <c r="G12">
-        <v>5259.503300467962</v>
+        <v>5231.346959647781</v>
       </c>
       <c r="H12">
-        <v>0.5432662992611079</v>
+        <v>0.5461902863714237</v>
       </c>
     </row>
     <row r="13">
@@ -690,25 +690,25 @@
         <v>2034</v>
       </c>
       <c r="B13">
-        <v>28.9625743499609</v>
+        <v>28.96257434995407</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13">
-        <v>306.9824965951363</v>
+        <v>326.2799606409457</v>
       </c>
       <c r="F13">
-        <v>0.3207906942913384</v>
+        <v>0.3247564344106765</v>
       </c>
       <c r="G13">
-        <v>5369.795805540245</v>
+        <v>5371.465998473741</v>
       </c>
       <c r="H13">
-        <v>0.5393608136845536</v>
+        <v>0.5391931059078389</v>
       </c>
     </row>
     <row r="14">
@@ -716,25 +716,25 @@
         <v>2035</v>
       </c>
       <c r="B14">
-        <v>29.29447642991332</v>
+        <v>29.29447642992334</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14">
-        <v>239.8992991857809</v>
+        <v>230.9913779262596</v>
       </c>
       <c r="F14">
-        <v>0.3199471777405952</v>
+        <v>0.3245582902341944</v>
       </c>
       <c r="G14">
-        <v>5498.380973346484</v>
+        <v>5508.782784766356</v>
       </c>
       <c r="H14">
-        <v>0.5327836789032792</v>
+        <v>0.5317776644040578</v>
       </c>
     </row>
     <row r="15">
@@ -742,25 +742,25 @@
         <v>2036</v>
       </c>
       <c r="B15">
-        <v>29.23475238995189</v>
+        <v>29.23475238995202</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>16</v>
       </c>
       <c r="E15">
-        <v>116.6669731423232</v>
+        <v>146.5967438839343</v>
       </c>
       <c r="F15">
-        <v>0.3084283440845952</v>
+        <v>0.3136375020813455</v>
       </c>
       <c r="G15">
-        <v>5549.719471339647</v>
+        <v>5556.338554246508</v>
       </c>
       <c r="H15">
-        <v>0.5267789217261987</v>
+        <v>0.5261513873665773</v>
       </c>
     </row>
     <row r="16">
@@ -768,25 +768,25 @@
         <v>2037</v>
       </c>
       <c r="B16">
-        <v>29.17600789994837</v>
+        <v>29.17600789995107</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>173.194057654345</v>
+        <v>173.5731612614937</v>
       </c>
       <c r="F16">
-        <v>0.2845474426563226</v>
+        <v>0.2919396131570683</v>
       </c>
       <c r="G16">
-        <v>5619.96390174591</v>
+        <v>5630.543830587956</v>
       </c>
       <c r="H16">
-        <v>0.5191493826301</v>
+        <v>0.5181738883099047</v>
       </c>
     </row>
     <row r="17">
@@ -794,25 +794,25 @@
         <v>2038</v>
       </c>
       <c r="B17">
-        <v>29.09636840997518</v>
+        <v>29.0963684099763</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>189.1175125716436</v>
+        <v>168.3629475157368</v>
       </c>
       <c r="F17">
-        <v>0.2735602791185061</v>
+        <v>0.2816061528257992</v>
       </c>
       <c r="G17">
-        <v>5670.018464464812</v>
+        <v>5663.074400323652</v>
       </c>
       <c r="H17">
-        <v>0.5131617928994092</v>
+        <v>0.5137910320993382</v>
       </c>
     </row>
     <row r="18">
@@ -820,25 +820,25 @@
         <v>2039</v>
       </c>
       <c r="B18">
-        <v>28.96841058992469</v>
+        <v>28.96841058994999</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18">
-        <v>74.66834168457166</v>
+        <v>114.5281331950805</v>
       </c>
       <c r="F18">
-        <v>0.2744640121209787</v>
+        <v>0.2819566803806406</v>
       </c>
       <c r="G18">
-        <v>5725.233558343087</v>
+        <v>5737.793202661475</v>
       </c>
       <c r="H18">
-        <v>0.5059777962719185</v>
+        <v>0.5048702448271052</v>
       </c>
     </row>
     <row r="19">
@@ -846,25 +846,25 @@
         <v>2040</v>
       </c>
       <c r="B19">
-        <v>28.81461644994819</v>
+        <v>28.81461644995066</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>2.582554595184213</v>
+        <v>5.621839967628925</v>
       </c>
       <c r="F19">
-        <v>0.2745375240375157</v>
+        <v>0.2819936382376502</v>
       </c>
       <c r="G19">
-        <v>5731.619078861759</v>
+        <v>5739.149036941112</v>
       </c>
       <c r="H19">
-        <v>0.5027308349261495</v>
+        <v>0.5020712350294436</v>
       </c>
     </row>
     <row r="20">
@@ -872,7 +872,7 @@
         <v>2041</v>
       </c>
       <c r="B20">
-        <v>28.30960012992702</v>
+        <v>28.30960012995091</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -884,13 +884,13 @@
         <v>0.153541385</v>
       </c>
       <c r="F20">
-        <v>0.2704396612905385</v>
+        <v>0.2781906552442441</v>
       </c>
       <c r="G20">
-        <v>5685.518633508551</v>
+        <v>5683.490657990042</v>
       </c>
       <c r="H20">
-        <v>0.4979246741551366</v>
+        <v>0.4981023429703774</v>
       </c>
     </row>
     <row r="21">
@@ -898,7 +898,7 @@
         <v>2042</v>
       </c>
       <c r="B21">
-        <v>27.78002530994867</v>
+        <v>27.7800253099503</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0.153541385</v>
       </c>
       <c r="F21">
-        <v>0.2495164025707776</v>
+        <v>0.257267396543277</v>
       </c>
       <c r="G21">
-        <v>5601.277200513662</v>
+        <v>5620.248905096278</v>
       </c>
       <c r="H21">
-        <v>0.4959587664649254</v>
+        <v>0.4942846087254283</v>
       </c>
     </row>
     <row r="22">
@@ -924,7 +924,7 @@
         <v>2043</v>
       </c>
       <c r="B22">
-        <v>27.19968143974202</v>
+        <v>27.19968143994861</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -936,13 +936,13 @@
         <v>0.153541385</v>
       </c>
       <c r="F22">
-        <v>0.237796630586671</v>
+        <v>0.2457077183393178</v>
       </c>
       <c r="G22">
-        <v>5493.563379974047</v>
+        <v>5510.804137556207</v>
       </c>
       <c r="H22">
-        <v>0.4951190977225153</v>
+        <v>0.4935700990456619</v>
       </c>
     </row>
     <row r="23">
@@ -950,7 +950,7 @@
         <v>2044</v>
       </c>
       <c r="B23">
-        <v>26.57332149994539</v>
+        <v>26.57332149995102</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.1252230463756332</v>
+        <v>0.1367933993437299</v>
       </c>
       <c r="F23">
-        <v>0.2400136672359905</v>
+        <v>0.245328087940182</v>
       </c>
       <c r="G23">
-        <v>5339.400565717466</v>
+        <v>5363.870386796181</v>
       </c>
       <c r="H23">
-        <v>0.4976836102270345</v>
+        <v>0.4954131920369382</v>
       </c>
     </row>
     <row r="24">
@@ -976,7 +976,7 @@
         <v>2045</v>
       </c>
       <c r="B24">
-        <v>25.90453326995059</v>
+        <v>25.90453326995338</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.1535413578072158</v>
+        <v>0.153541385</v>
       </c>
       <c r="F24">
-        <v>0.2400150241524932</v>
+        <v>0.2453267310236783</v>
       </c>
       <c r="G24">
-        <v>5162.308027389312</v>
+        <v>5181.798617837004</v>
       </c>
       <c r="H24">
-        <v>0.5018013867539605</v>
+        <v>0.4999139329881272</v>
       </c>
     </row>
     <row r="25">
@@ -1002,7 +1002,7 @@
         <v>2046</v>
       </c>
       <c r="B25">
-        <v>25.11626359004565</v>
+        <v>25.1162635900469</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1014,13 +1014,13 @@
         <v>0.153541385</v>
       </c>
       <c r="F25">
-        <v>0.2364375674590308</v>
+        <v>0.2417506312467248</v>
       </c>
       <c r="G25">
-        <v>5025.004015584355</v>
+        <v>5036.97773473263</v>
       </c>
       <c r="H25">
-        <v>0.4998257416740569</v>
+        <v>0.4986375742115546</v>
       </c>
     </row>
     <row r="26">
@@ -1028,7 +1028,7 @@
         <v>2047</v>
       </c>
       <c r="B26">
-        <v>24.31404712992419</v>
+        <v>24.31404712995696</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1040,13 +1040,13 @@
         <v>0.153541385</v>
       </c>
       <c r="F26">
-        <v>0.2333201761213601</v>
+        <v>0.2386332399090469</v>
       </c>
       <c r="G26">
-        <v>4884.368826033995</v>
+        <v>4874.709737789721</v>
       </c>
       <c r="H26">
-        <v>0.4977930208777187</v>
+        <v>0.4987793825234276</v>
       </c>
     </row>
     <row r="27">
@@ -1054,7 +1054,7 @@
         <v>2048</v>
       </c>
       <c r="B27">
-        <v>23.5181229799519</v>
+        <v>23.51812297995581</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.1535413916467235</v>
+        <v>0.153541385</v>
       </c>
       <c r="F27">
-        <v>0.2280592330999163</v>
+        <v>0.2333722968876059</v>
       </c>
       <c r="G27">
-        <v>4727.978931222055</v>
+        <v>4746.364448290897</v>
       </c>
       <c r="H27">
-        <v>0.4974244454569322</v>
+        <v>0.4954976221521373</v>
       </c>
     </row>
     <row r="28">
@@ -1080,7 +1080,7 @@
         <v>2049</v>
       </c>
       <c r="B28">
-        <v>22.72592122994893</v>
+        <v>22.72592122995475</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1092,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.2184392430325414</v>
+        <v>0.2237523068202285</v>
       </c>
       <c r="G28">
-        <v>4519.167858396589</v>
+        <v>4537.298804107789</v>
       </c>
       <c r="H28">
-        <v>0.5028784489101084</v>
+        <v>0.5008689577459636</v>
       </c>
     </row>
     <row r="29">
@@ -1106,25 +1106,25 @@
         <v>2050</v>
       </c>
       <c r="B29">
-        <v>21.93048930995622</v>
+        <v>21.93048930995987</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>1.335763238</v>
+        <v>8.289760027</v>
       </c>
       <c r="F29">
-        <v>0.2189930822105446</v>
+        <v>0.2229922774237511</v>
       </c>
       <c r="G29">
-        <v>4390.844281696604</v>
+        <v>4374.471505543002</v>
       </c>
       <c r="H29">
-        <v>0.4994595094472895</v>
+        <v>0.5013288869791747</v>
       </c>
     </row>
   </sheetData>
